--- a/experiment/analysis_31.xlsx
+++ b/experiment/analysis_31.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,58 +400,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.9603013619240799</v>
+        <v>0.9255213505461769</v>
       </c>
       <c r="B2">
-        <v>1685534987.032359</v>
+        <v>1685613059.095365</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.9687047232686177</v>
+        <v>0.006620324395895399</v>
       </c>
       <c r="B3">
-        <v>1685534988.039695</v>
+        <v>1685613060.103559</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.9603013619240799</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>1685534989.04455</v>
+        <v>1685613061.113617</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.0651984931903796</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1685534990.05957</v>
+        <v>1685613062.11815</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.05940307157345697</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1685534991.068129</v>
+        <v>1685613063.124629</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.05679513184584178</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1685534992.076792</v>
+        <v>1685613064.130596</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0</v>
+        <v>0.9804700430321087</v>
       </c>
       <c r="B8">
-        <v>1685534993.07779</v>
+        <v>1685613065.136958</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -459,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>1685534994.086077</v>
+        <v>1685613066.137494</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -467,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1685534995.098873</v>
+        <v>1685613067.141251</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>1685534996.103348</v>
+        <v>1685613068.145785</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -483,15 +483,15 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>1685534997.110153</v>
+        <v>1685613069.149947</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>1</v>
+        <v>0.9837802052300564</v>
       </c>
       <c r="B13">
-        <v>1685534998.120677</v>
+        <v>1685613070.157634</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>1685534999.133454</v>
+        <v>1685613071.159661</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>1685535000.139917</v>
+        <v>1685613072.168591</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -515,23 +515,23 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>1685535001.151649</v>
+        <v>1685613073.177304</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.1501014198782961</v>
+        <v>0.3978814961933135</v>
       </c>
       <c r="B17">
-        <v>1685535002.158641</v>
+        <v>1685613074.178235</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.4957983193277311</v>
+        <v>0.6858656074147633</v>
       </c>
       <c r="B18">
-        <v>1685535003.164979</v>
+        <v>1685613075.180999</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>1685535004.177079</v>
+        <v>1685613076.185697</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>1685535005.187091</v>
+        <v>1685613077.193296</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -555,23 +555,23 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>1685535006.192605</v>
+        <v>1685613078.200558</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.7166038829324832</v>
+        <v>0.5954981794107912</v>
       </c>
       <c r="B22">
-        <v>1685535007.198736</v>
+        <v>1685613079.207412</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.1445957693422196</v>
+        <v>0.1780867262495862</v>
       </c>
       <c r="B23">
-        <v>1685535008.206399</v>
+        <v>1685613080.211111</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>1685535009.213585</v>
+        <v>1685613081.225981</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>1685535010.222224</v>
+        <v>1685613082.240733</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -595,23 +595,23 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>1685535011.231252</v>
+        <v>1685613083.247193</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.8498985801217038</v>
+        <v>0.7861635220125787</v>
       </c>
       <c r="B27">
-        <v>1685535012.231776</v>
+        <v>1685613084.253564</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.07360185453491741</v>
+        <v>0.08738828202581927</v>
       </c>
       <c r="B28">
-        <v>1685535013.240928</v>
+        <v>1685613085.255706</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>1685535014.243321</v>
+        <v>1685613086.259642</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>1685535015.250641</v>
+        <v>1685613087.267441</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -635,23 +635,23 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>1685535016.259624</v>
+        <v>1685613088.271025</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>0.8753984352361633</v>
+        <v>0.8639523336643496</v>
       </c>
       <c r="B32">
-        <v>1685535017.266661</v>
+        <v>1685613089.279618</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0.03680092726745871</v>
+        <v>0.04203905991393578</v>
       </c>
       <c r="B33">
-        <v>1685535018.27216</v>
+        <v>1685613090.284304</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>1685535019.279896</v>
+        <v>1685613091.293627</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <v>1685535020.28748</v>
+        <v>1685613092.300772</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -675,23 +675,23 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>1685535021.294036</v>
+        <v>1685613093.304582</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>0.9093016516951609</v>
+        <v>0.9155908639523338</v>
       </c>
       <c r="B37">
-        <v>1685535022.301654</v>
+        <v>1685613094.310327</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>0.03390321645899739</v>
+        <v>0.03872889771598809</v>
       </c>
       <c r="B38">
-        <v>1685535023.306973</v>
+        <v>1685613095.326353</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <v>1685535024.313986</v>
+        <v>1685613096.333715</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <v>1685535025.323688</v>
+        <v>1685613097.343356</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -715,23 +715,23 @@
         <v>0</v>
       </c>
       <c r="B41">
-        <v>1685535026.337599</v>
+        <v>1685613098.354654</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>0.931903796001159</v>
+        <v>0.9318106587222774</v>
       </c>
       <c r="B42">
-        <v>1685535027.346315</v>
+        <v>1685613099.361206</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>0.02260214430599826</v>
+        <v>0.02581926514399206</v>
       </c>
       <c r="B43">
-        <v>1685535028.354643</v>
+        <v>1685613100.364231</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>1685535029.363429</v>
+        <v>1685613101.368996</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>1685535030.37066</v>
+        <v>1685613102.377042</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -755,23 +755,23 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>1685535031.378352</v>
+        <v>1685613103.378177</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>0.9376992176180816</v>
+        <v>0.9351208209202251</v>
       </c>
       <c r="B47">
-        <v>1685535032.386641</v>
+        <v>1685613104.384887</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>0.01419878296146044</v>
+        <v>0.02250910294604436</v>
       </c>
       <c r="B48">
-        <v>1685535033.392559</v>
+        <v>1685613105.389002</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="B49">
-        <v>1685535034.39964</v>
+        <v>1685613106.394259</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>1685535035.409538</v>
+        <v>1685613107.395642</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -795,23 +795,23 @@
         <v>0</v>
       </c>
       <c r="B51">
-        <v>1685535036.418397</v>
+        <v>1685613108.398235</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>0.9461025789626195</v>
+        <v>0.9384309831181727</v>
       </c>
       <c r="B52">
-        <v>1685535037.430641</v>
+        <v>1685613109.403816</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>0.01130107215299913</v>
+        <v>0.01621979476994373</v>
       </c>
       <c r="B53">
-        <v>1685535038.438529</v>
+        <v>1685613110.417581</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="B54">
-        <v>1685535039.450719</v>
+        <v>1685613111.423888</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="B55">
-        <v>1685535040.463537</v>
+        <v>1685613112.431649</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -835,23 +835,23 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>1685535041.470818</v>
+        <v>1685613113.435671</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>0.9545059403071574</v>
+        <v>0.9513406156901688</v>
       </c>
       <c r="B57">
-        <v>1685535042.482666</v>
+        <v>1685613114.444269</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>0.008403361344537815</v>
+        <v>0.01290963257199603</v>
       </c>
       <c r="B58">
-        <v>1685535043.492624</v>
+        <v>1685613115.449906</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>1685535044.501785</v>
+        <v>1685613116.450998</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>1685535045.50901</v>
+        <v>1685613117.451643</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -875,111 +875,71 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>1685535046.521168</v>
+        <v>1685613118.454959</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>0.9545059403071574</v>
+        <v>0.9609400860642172</v>
       </c>
       <c r="B62">
-        <v>1685535047.529928</v>
+        <v>1685613119.456368</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>0.002897710808461316</v>
+        <v>0.9966898378020523</v>
       </c>
       <c r="B63">
-        <v>1685535048.53676</v>
+        <v>1685613120.471049</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>0</v>
+        <v>0.9966898378020523</v>
       </c>
       <c r="B64">
-        <v>1685535049.547781</v>
+        <v>1685613121.474754</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>0</v>
+        <v>0.9867593512082092</v>
       </c>
       <c r="B65">
-        <v>1685535050.55584</v>
+        <v>1685613122.482967</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66">
-        <v>1685535051.563881</v>
+        <v>1685613123.491504</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>0.9574036511156186</v>
+        <v>0.9966898378020523</v>
       </c>
       <c r="B67">
-        <v>1685535052.572542</v>
+        <v>1685613124.500623</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>0.9603013619240799</v>
+        <v>0.9966898378020523</v>
       </c>
       <c r="B68">
-        <v>1685535053.578573</v>
+        <v>1685613125.506711</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>0.9745001448855404</v>
+        <v>0.9966898378020523</v>
       </c>
       <c r="B69">
-        <v>1685535054.582942</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>0.9687047232686177</v>
-      </c>
-      <c r="B70">
-        <v>1685535055.588851</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <v>0.971602434077079</v>
-      </c>
-      <c r="B71">
-        <v>1685535056.601307</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <v>0.9687047232686177</v>
-      </c>
-      <c r="B72">
-        <v>1685535057.610351</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
-        <v>0.9658070124601564</v>
-      </c>
-      <c r="B73">
-        <v>1685535058.620931</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <v>0.9687047232686177</v>
-      </c>
-      <c r="B74">
-        <v>1685535059.633821</v>
+        <v>1685613126.521278</v>
       </c>
     </row>
   </sheetData>
@@ -989,7 +949,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1005,658 +965,282 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.129265086239452</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1685515925.231202</v>
+        <v>1685613065.147663</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.1273822873449297</v>
+        <v>0.2576240895316762</v>
       </c>
       <c r="B3">
-        <v>1685515926.325259</v>
+        <v>1685613066.168225</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.1277591894560915</v>
+        <v>0.9990026438706784</v>
       </c>
       <c r="B4">
-        <v>1685515927.433166</v>
+        <v>1685613070.226218</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.1264853412592519</v>
+        <v>0.2366326840975001</v>
       </c>
       <c r="B5">
-        <v>1685515928.527225</v>
+        <v>1685613071.236143</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.1266312532521254</v>
+        <v>0.9685660658364204</v>
       </c>
       <c r="B6">
-        <v>1685515929.623169</v>
+        <v>1685613075.286364</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.1276582185320411</v>
+        <v>0.2282862857085139</v>
       </c>
       <c r="B7">
-        <v>1685515930.716222</v>
+        <v>1685613076.295844</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.1263484786221036</v>
+        <v>0.2215038182014743</v>
       </c>
       <c r="B8">
-        <v>1685515931.81023</v>
+        <v>1685613078.340245</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.1287373268262374</v>
+        <v>0.2099154640889067</v>
       </c>
       <c r="B9">
-        <v>1685515932.90422</v>
+        <v>1685613079.350001</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.1460273744357581</v>
+        <v>0.8449838342062587</v>
       </c>
       <c r="B10">
-        <v>1685515933.998177</v>
+        <v>1685613080.360299</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>1</v>
+        <v>0.2281233416472198</v>
       </c>
       <c r="B11">
-        <v>1685515935.093256</v>
+        <v>1685613081.360224</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.2626610633331705</v>
+        <v>0.3218212871724346</v>
       </c>
       <c r="B12">
-        <v>1685515936.185952</v>
+        <v>1685613084.40032</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.1496251859113984</v>
+        <v>0.7789696718830714</v>
       </c>
       <c r="B13">
-        <v>1685515937.2786</v>
+        <v>1685613085.410274</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.1331930081069563</v>
+        <v>0.2180567303606938</v>
       </c>
       <c r="B14">
-        <v>1685515938.372293</v>
+        <v>1685613086.420332</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.5691455831765331</v>
+        <v>0.4153476349830282</v>
       </c>
       <c r="B15">
-        <v>1685515939.473251</v>
+        <v>1685613089.45035</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.4926625569570685</v>
+        <v>0.7162498568579189</v>
       </c>
       <c r="B16">
-        <v>1685515940.56619</v>
+        <v>1685613090.46981</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.1863267630315393</v>
+        <v>0.2130035600387493</v>
       </c>
       <c r="B17">
-        <v>1685515941.659991</v>
+        <v>1685613091.480011</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.1395133682347507</v>
+        <v>0.480450475922496</v>
       </c>
       <c r="B18">
-        <v>1685515942.794955</v>
+        <v>1685613094.510285</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.1338628247055755</v>
+        <v>0.661700684247443</v>
       </c>
       <c r="B19">
-        <v>1685515943.889198</v>
+        <v>1685613095.519966</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.9343390253820049</v>
+        <v>0.2122461348749667</v>
       </c>
       <c r="B20">
-        <v>1685515944.981794</v>
+        <v>1685613096.530032</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.2718846638080766</v>
+        <v>0.5741955863475671</v>
       </c>
       <c r="B21">
-        <v>1685515946.076133</v>
+        <v>1685613099.569975</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.1567467671975583</v>
+        <v>0.6053373621984545</v>
       </c>
       <c r="B22">
-        <v>1685515947.209759</v>
+        <v>1685613100.580904</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.1391434068239473</v>
+        <v>0.198198589246505</v>
       </c>
       <c r="B23">
-        <v>1685515948.335956</v>
+        <v>1685613101.590235</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.5370761976154419</v>
+        <v>0.6310611874371139</v>
       </c>
       <c r="B24">
-        <v>1685515949.445307</v>
+        <v>1685613104.620124</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.5059549311588837</v>
+        <v>0.5631138768644532</v>
       </c>
       <c r="B25">
-        <v>1685515950.544163</v>
+        <v>1685613105.640294</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.1932975440179551</v>
+        <v>0.1932092874543898</v>
       </c>
       <c r="B26">
-        <v>1685515951.654186</v>
+        <v>1685613106.650166</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.1462148498925832</v>
+        <v>0.7073607163076321</v>
       </c>
       <c r="B27">
-        <v>1685515952.747199</v>
+        <v>1685613109.679727</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.1432611674868057</v>
+        <v>0.5212184377595389</v>
       </c>
       <c r="B28">
-        <v>1685515953.841212</v>
+        <v>1685613110.689708</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>0.9458963218143238</v>
+        <v>0.1858963806701341</v>
       </c>
       <c r="B29">
-        <v>1685515954.934191</v>
+        <v>1685613111.700327</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>0.2903708651238266</v>
+        <v>0.7641226159436726</v>
       </c>
       <c r="B30">
-        <v>1685515956.028693</v>
+        <v>1685613114.760316</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>0.1634675202233731</v>
+        <v>0.4992895078097414</v>
       </c>
       <c r="B31">
-        <v>1685515957.125179</v>
+        <v>1685613115.770596</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>0.145047809879707</v>
+        <v>0.1876875999807831</v>
       </c>
       <c r="B32">
-        <v>1685515958.217893</v>
+        <v>1685613116.780206</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0.3730964159684522</v>
+        <v>0.2272963635397318</v>
       </c>
       <c r="B33">
-        <v>1685515959.312168</v>
+        <v>1685613117.790304</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0.6098245550050667</v>
+        <v>0.8028524501304349</v>
       </c>
       <c r="B34">
-        <v>1685515960.405734</v>
+        <v>1685613119.810278</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>0.225325125019827</v>
+        <v>0.4238941070398836</v>
       </c>
       <c r="B35">
-        <v>1685515961.502183</v>
+        <v>1685613120.820335</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>0.1592895126435416</v>
+        <v>0.1792086538909354</v>
       </c>
       <c r="B36">
-        <v>1685515962.595923</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>0.1480212903981764</v>
-      </c>
-      <c r="B37">
-        <v>1685515963.693271</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>0.8254427455465677</v>
-      </c>
-      <c r="B38">
-        <v>1685515964.787098</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>0.3350772677334053</v>
-      </c>
-      <c r="B39">
-        <v>1685515965.88023</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>0.1759458250816958</v>
-      </c>
-      <c r="B40">
-        <v>1685515967.152688</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>0.1519863082129666</v>
-      </c>
-      <c r="B41">
-        <v>1685515968.278678</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>0.4917431500357904</v>
-      </c>
-      <c r="B42">
-        <v>1685515969.410275</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>0.51651976954537</v>
-      </c>
-      <c r="B43">
-        <v>1685515970.525265</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>0.2036960261130679</v>
-      </c>
-      <c r="B44">
-        <v>1685515971.646193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>0.1571075393045497</v>
-      </c>
-      <c r="B45">
-        <v>1685515972.756241</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>0.1489683625408121</v>
-      </c>
-      <c r="B46">
-        <v>1685515973.849926</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>0.9203026583510776</v>
-      </c>
-      <c r="B47">
-        <v>1685515974.943456</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>0.2821398075820352</v>
-      </c>
-      <c r="B48">
-        <v>1685515976.063178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>0.1684587449467872</v>
-      </c>
-      <c r="B49">
-        <v>1685515977.158195</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>0.1510650955027933</v>
-      </c>
-      <c r="B50">
-        <v>1685515978.251354</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>0.4185486625939026</v>
-      </c>
-      <c r="B51">
-        <v>1685515979.345191</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>0.5855746612542632</v>
-      </c>
-      <c r="B52">
-        <v>1685515980.438188</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>0.2132038499164612</v>
-      </c>
-      <c r="B53">
-        <v>1685515981.53318</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>0.1578815961721895</v>
-      </c>
-      <c r="B54">
-        <v>1685515982.626897</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>0.1497081615278138</v>
-      </c>
-      <c r="B55">
-        <v>1685515983.720949</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>0.8563841892920089</v>
-      </c>
-      <c r="B56">
-        <v>1685515984.829245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>0.3215623640936274</v>
-      </c>
-      <c r="B57">
-        <v>1685515985.923224</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>0.1745108830653265</v>
-      </c>
-      <c r="B58">
-        <v>1685515987.01739</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>0.1512566618640598</v>
-      </c>
-      <c r="B59">
-        <v>1685515988.110284</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>0.20728658470672</v>
-      </c>
-      <c r="B60">
-        <v>1685515989.206279</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>0.704263790300418</v>
-      </c>
-      <c r="B61">
-        <v>1685515990.300225</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>0.229921563253127</v>
-      </c>
-      <c r="B62">
-        <v>1685515991.393403</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>0.1569581241309086</v>
-      </c>
-      <c r="B63">
-        <v>1685515992.486352</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>0.1489109890451841</v>
-      </c>
-      <c r="B64">
-        <v>1685515993.579522</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>0.1464915519884942</v>
-      </c>
-      <c r="B65">
-        <v>1685515994.675544</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <v>0.1459755456381152</v>
-      </c>
-      <c r="B66">
-        <v>1685515995.76945</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>0.1455439893838858</v>
-      </c>
-      <c r="B67">
-        <v>1685515996.865471</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <v>0.144953729837516</v>
-      </c>
-      <c r="B68">
-        <v>1685515997.960932</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <v>0.1437546807703575</v>
-      </c>
-      <c r="B69">
-        <v>1685515999.055261</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>0.143061075764928</v>
-      </c>
-      <c r="B70">
-        <v>1685516000.149109</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <v>0.1428424219948866</v>
-      </c>
-      <c r="B71">
-        <v>1685516001.243978</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <v>0.1420108065433727</v>
-      </c>
-      <c r="B72">
-        <v>1685516002.337529</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
-        <v>0.1416652086220715</v>
-      </c>
-      <c r="B73">
-        <v>1685516003.431234</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <v>0.1437079885099412</v>
-      </c>
-      <c r="B74">
-        <v>1685516004.524847</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <v>0.2379300688266499</v>
-      </c>
-      <c r="B75">
-        <v>1685516005.619005</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <v>0.1392058204481784</v>
-      </c>
-      <c r="B76">
-        <v>1685516006.714171</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <v>0.1242787579147139</v>
-      </c>
-      <c r="B77">
-        <v>1685516007.80629</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <v>0.1214338945905142</v>
-      </c>
-      <c r="B78">
-        <v>1685516008.899967</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
-        <v>0.1236363609657477</v>
-      </c>
-      <c r="B79">
-        <v>1685516009.992843</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <v>0.1195240150526035</v>
-      </c>
-      <c r="B80">
-        <v>1685516011.087283</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81">
-        <v>0.1182321069846134</v>
-      </c>
-      <c r="B81">
-        <v>1685516012.180349</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82">
-        <v>0.117701770721372</v>
-      </c>
-      <c r="B82">
-        <v>1685516013.27523</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83">
-        <v>0.1011876829076786</v>
-      </c>
-      <c r="B83">
-        <v>1685516014.369259</v>
+        <v>1685613121.839892</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/analysis_31.xlsx
+++ b/experiment/analysis_31.xlsx
@@ -989,7 +989,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1005,658 +1005,1506 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.129265086239452</v>
+        <v>0.02263620351861226</v>
       </c>
       <c r="B2">
-        <v>1685515925.231202</v>
+        <v>1685699368.551118</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.1273822873449297</v>
+        <v>0.01760345514650393</v>
       </c>
       <c r="B3">
-        <v>1685515926.325259</v>
+        <v>1685699368.762455</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.1277591894560915</v>
+        <v>0.1517993371772979</v>
       </c>
       <c r="B4">
-        <v>1685515927.433166</v>
+        <v>1685699370.581324</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.1264853412592519</v>
+        <v>0.215451986046057</v>
       </c>
       <c r="B5">
-        <v>1685515928.527225</v>
+        <v>1685699370.785406</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.1266312532521254</v>
+        <v>0.3874576858032735</v>
       </c>
       <c r="B6">
-        <v>1685515929.623169</v>
+        <v>1685699370.989739</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.1276582185320411</v>
+        <v>0.4787701514257193</v>
       </c>
       <c r="B7">
-        <v>1685515930.716222</v>
+        <v>1685699371.204371</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.1263484786221036</v>
+        <v>0.5085765347587459</v>
       </c>
       <c r="B8">
-        <v>1685515931.81023</v>
+        <v>1685699371.406816</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.1287373268262374</v>
+        <v>0.3597642035301167</v>
       </c>
       <c r="B9">
-        <v>1685515932.90422</v>
+        <v>1685699371.606881</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.1460273744357581</v>
+        <v>0.2774441599260248</v>
       </c>
       <c r="B10">
-        <v>1685515933.998177</v>
+        <v>1685699371.810574</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>1</v>
+        <v>0.214366064754584</v>
       </c>
       <c r="B11">
-        <v>1685515935.093256</v>
+        <v>1685699372.011444</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.2626610633331705</v>
+        <v>0.1454661820576745</v>
       </c>
       <c r="B12">
-        <v>1685515936.185952</v>
+        <v>1685699372.214061</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.1496251859113984</v>
+        <v>0.09930696960694767</v>
       </c>
       <c r="B13">
-        <v>1685515937.2786</v>
+        <v>1685699372.417303</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.1331930081069563</v>
+        <v>0.06830805707973756</v>
       </c>
       <c r="B14">
-        <v>1685515938.372293</v>
+        <v>1685699372.622664</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.5691455831765331</v>
+        <v>0.04770967087559257</v>
       </c>
       <c r="B15">
-        <v>1685515939.473251</v>
+        <v>1685699372.827598</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.4926625569570685</v>
+        <v>0.04242126967907978</v>
       </c>
       <c r="B16">
-        <v>1685515940.56619</v>
+        <v>1685699373.032327</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.1863267630315393</v>
+        <v>0.03092176378330385</v>
       </c>
       <c r="B17">
-        <v>1685515941.659991</v>
+        <v>1685699373.245616</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.1395133682347507</v>
+        <v>0.02357953232560579</v>
       </c>
       <c r="B18">
-        <v>1685515942.794955</v>
+        <v>1685699373.447363</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.1338628247055755</v>
+        <v>0.01887438953815723</v>
       </c>
       <c r="B19">
-        <v>1685515943.889198</v>
+        <v>1685699373.650731</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.9343390253820049</v>
+        <v>0.07933621707430896</v>
       </c>
       <c r="B20">
-        <v>1685515944.981794</v>
+        <v>1685699375.488968</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.2718846638080766</v>
+        <v>0.2058048906259241</v>
       </c>
       <c r="B21">
-        <v>1685515946.076133</v>
+        <v>1685699375.692861</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.1567467671975583</v>
+        <v>0.3241174892590556</v>
       </c>
       <c r="B22">
-        <v>1685515947.209759</v>
+        <v>1685699375.895176</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.1391434068239473</v>
+        <v>0.40593921842563</v>
       </c>
       <c r="B23">
-        <v>1685515948.335956</v>
+        <v>1685699376.09906</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.5370761976154419</v>
+        <v>0.4511180969785715</v>
       </c>
       <c r="B24">
-        <v>1685515949.445307</v>
+        <v>1685699376.301828</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.5059549311588837</v>
+        <v>0.3635823133393171</v>
       </c>
       <c r="B25">
-        <v>1685515950.544163</v>
+        <v>1685699376.504137</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.1932975440179551</v>
+        <v>0.2464287488180491</v>
       </c>
       <c r="B26">
-        <v>1685515951.654186</v>
+        <v>1685699376.706941</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.1462148498925832</v>
+        <v>0.1749670229236828</v>
       </c>
       <c r="B27">
-        <v>1685515952.747199</v>
+        <v>1685699376.91164</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.1432611674868057</v>
+        <v>0.1196560953373878</v>
       </c>
       <c r="B28">
-        <v>1685515953.841212</v>
+        <v>1685699377.112499</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>0.9458963218143238</v>
+        <v>0.08230560872319352</v>
       </c>
       <c r="B29">
-        <v>1685515954.934191</v>
+        <v>1685699377.316847</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>0.2903708651238266</v>
+        <v>0.06965698598316369</v>
       </c>
       <c r="B30">
-        <v>1685515956.028693</v>
+        <v>1685699377.520885</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>0.1634675202233731</v>
+        <v>0.05021860926237166</v>
       </c>
       <c r="B31">
-        <v>1685515957.125179</v>
+        <v>1685699377.731877</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>0.145047809879707</v>
+        <v>0.0352381211247152</v>
       </c>
       <c r="B32">
-        <v>1685515958.217893</v>
+        <v>1685699377.934075</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0.3730964159684522</v>
+        <v>0.02527623791049937</v>
       </c>
       <c r="B33">
-        <v>1685515959.312168</v>
+        <v>1685699378.136254</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0.6098245550050667</v>
+        <v>0.01875189763341559</v>
       </c>
       <c r="B34">
-        <v>1685515960.405734</v>
+        <v>1685699378.338659</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>0.225325125019827</v>
+        <v>0.2456231233509293</v>
       </c>
       <c r="B35">
-        <v>1685515961.502183</v>
+        <v>1685699380.588108</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>0.1592895126435416</v>
+        <v>0.385037053000496</v>
       </c>
       <c r="B36">
-        <v>1685515962.595923</v>
+        <v>1685699380.803457</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>0.1480212903981764</v>
+        <v>0.5184387790190215</v>
       </c>
       <c r="B37">
-        <v>1685515963.693271</v>
+        <v>1685699381.006025</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>0.8254427455465677</v>
+        <v>0.65512525420414</v>
       </c>
       <c r="B38">
-        <v>1685515964.787098</v>
+        <v>1685699381.208139</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>0.3350772677334053</v>
+        <v>0.6695218619700068</v>
       </c>
       <c r="B39">
-        <v>1685515965.88023</v>
+        <v>1685699381.409736</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>0.1759458250816958</v>
+        <v>0.472289480363809</v>
       </c>
       <c r="B40">
-        <v>1685515967.152688</v>
+        <v>1685699381.611022</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>0.1519863082129666</v>
+        <v>0.3192545231796998</v>
       </c>
       <c r="B41">
-        <v>1685515968.278678</v>
+        <v>1685699381.812652</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>0.4917431500357904</v>
+        <v>0.2802066545291112</v>
       </c>
       <c r="B42">
-        <v>1685515969.410275</v>
+        <v>1685699382.016087</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>0.51651976954537</v>
+        <v>0.1900262988253009</v>
       </c>
       <c r="B43">
-        <v>1685515970.525265</v>
+        <v>1685699382.217552</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>0.2036960261130679</v>
+        <v>0.1293626938785976</v>
       </c>
       <c r="B44">
-        <v>1685515971.646193</v>
+        <v>1685699382.420222</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>0.1571075393045497</v>
+        <v>0.08869053787558794</v>
       </c>
       <c r="B45">
-        <v>1685515972.756241</v>
+        <v>1685699382.625871</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>0.1489683625408121</v>
+        <v>0.06397617634245679</v>
       </c>
       <c r="B46">
-        <v>1685515973.849926</v>
+        <v>1685699382.827583</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>0.9203026583510776</v>
+        <v>0.04653862312379603</v>
       </c>
       <c r="B47">
-        <v>1685515974.943456</v>
+        <v>1685699383.028641</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>0.2821398075820352</v>
+        <v>0.03840199507454034</v>
       </c>
       <c r="B48">
-        <v>1685515976.063178</v>
+        <v>1685699383.229429</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>0.1684587449467872</v>
+        <v>0.02840124721491204</v>
       </c>
       <c r="B49">
-        <v>1685515977.158195</v>
+        <v>1685699383.439654</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>0.1510650955027933</v>
+        <v>0.02038326193950324</v>
       </c>
       <c r="B50">
-        <v>1685515978.251354</v>
+        <v>1685699383.640611</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>0.4185486625939026</v>
+        <v>0.1386459481978963</v>
       </c>
       <c r="B51">
-        <v>1685515979.345191</v>
+        <v>1685699385.474819</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>0.5855746612542632</v>
+        <v>0.457288043063126</v>
       </c>
       <c r="B52">
-        <v>1685515980.438188</v>
+        <v>1685699385.677789</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>0.2132038499164612</v>
+        <v>0.6750580927846402</v>
       </c>
       <c r="B53">
-        <v>1685515981.53318</v>
+        <v>1685699385.888812</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>0.1578815961721895</v>
+        <v>0.8509601764357622</v>
       </c>
       <c r="B54">
-        <v>1685515982.626897</v>
+        <v>1685699386.092688</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>0.1497081615278138</v>
+        <v>0.9704259961197214</v>
       </c>
       <c r="B55">
-        <v>1685515983.720949</v>
+        <v>1685699386.298392</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>0.8563841892920089</v>
+        <v>1</v>
       </c>
       <c r="B56">
-        <v>1685515984.829245</v>
+        <v>1685699386.499698</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>0.3215623640936274</v>
+        <v>0.704504056068826</v>
       </c>
       <c r="B57">
-        <v>1685515985.923224</v>
+        <v>1685699386.702443</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>0.1745108830653265</v>
+        <v>0.4754864047372509</v>
       </c>
       <c r="B58">
-        <v>1685515987.01739</v>
+        <v>1685699386.904604</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>0.1512566618640598</v>
+        <v>0.3213253746302949</v>
       </c>
       <c r="B59">
-        <v>1685515988.110284</v>
+        <v>1685699387.106669</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>0.20728658470672</v>
+        <v>0.227044630782573</v>
       </c>
       <c r="B60">
-        <v>1685515989.206279</v>
+        <v>1685699387.309609</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>0.704263790300418</v>
+        <v>0.1542701245062583</v>
       </c>
       <c r="B61">
-        <v>1685515990.300225</v>
+        <v>1685699387.511326</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>0.229921563253127</v>
+        <v>0.1301492866095015</v>
       </c>
       <c r="B62">
-        <v>1685515991.393403</v>
+        <v>1685699387.724727</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>0.1569581241309086</v>
+        <v>0.0930259613572427</v>
       </c>
       <c r="B63">
-        <v>1685515992.486352</v>
+        <v>1685699387.927971</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>0.1489109890451841</v>
+        <v>0.0640052629077287</v>
       </c>
       <c r="B64">
-        <v>1685515993.579522</v>
+        <v>1685699388.12978</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>0.1464915519884942</v>
+        <v>0.04454366457730709</v>
       </c>
       <c r="B65">
-        <v>1685515994.675544</v>
+        <v>1685699388.333797</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>0.1459755456381152</v>
+        <v>0.03131030096573804</v>
       </c>
       <c r="B66">
-        <v>1685515995.76945</v>
+        <v>1685699388.535702</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>0.1455439893838858</v>
+        <v>0.0269844295517036</v>
       </c>
       <c r="B67">
-        <v>1685515996.865471</v>
+        <v>1685699388.738118</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>0.144953729837516</v>
+        <v>0.02022249240803559</v>
       </c>
       <c r="B68">
-        <v>1685515997.960932</v>
+        <v>1685699388.942127</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>0.1437546807703575</v>
+        <v>0.2576387053135627</v>
       </c>
       <c r="B69">
-        <v>1685515999.055261</v>
+        <v>1685699390.568352</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>0.143061075764928</v>
+        <v>0.5808905914718815</v>
       </c>
       <c r="B70">
-        <v>1685516000.149109</v>
+        <v>1685699390.770809</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>0.1428424219948866</v>
+        <v>0.6791738151804447</v>
       </c>
       <c r="B71">
-        <v>1685516001.243978</v>
+        <v>1685699390.985903</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>0.1420108065433727</v>
+        <v>0.8336202945510564</v>
       </c>
       <c r="B72">
-        <v>1685516002.337529</v>
+        <v>1685699391.189522</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>0.1416652086220715</v>
+        <v>0.9076032578738364</v>
       </c>
       <c r="B73">
-        <v>1685516003.431234</v>
+        <v>1685699391.396617</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>0.1437079885099412</v>
+        <v>0.6125165095016746</v>
       </c>
       <c r="B74">
-        <v>1685516004.524847</v>
+        <v>1685699391.601861</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>0.2379300688266499</v>
+        <v>0.4320501020624523</v>
       </c>
       <c r="B75">
-        <v>1685516005.619005</v>
+        <v>1685699391.802569</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>0.1392058204481784</v>
+        <v>0.2922657065039687</v>
       </c>
       <c r="B76">
-        <v>1685516006.714171</v>
+        <v>1685699392.00474</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>0.1242787579147139</v>
+        <v>0.2567565805116054</v>
       </c>
       <c r="B77">
-        <v>1685516007.80629</v>
+        <v>1685699392.207595</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>0.1214338945905142</v>
+        <v>0.1742854935642226</v>
       </c>
       <c r="B78">
-        <v>1685516008.899967</v>
+        <v>1685699392.410018</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>0.1236363609657477</v>
+        <v>0.1186883762661389</v>
       </c>
       <c r="B79">
-        <v>1685516009.992843</v>
+        <v>1685699392.611443</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>0.1195240150526035</v>
+        <v>0.08475293958556745</v>
       </c>
       <c r="B80">
-        <v>1685516011.087283</v>
+        <v>1685699392.812539</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>0.1182321069846134</v>
+        <v>0.05884265110231832</v>
       </c>
       <c r="B81">
-        <v>1685516012.180349</v>
+        <v>1685699393.016912</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>0.117701770721372</v>
+        <v>0.04959058634529184</v>
       </c>
       <c r="B82">
-        <v>1685516013.27523</v>
+        <v>1685699393.218939</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>0.1011876829076786</v>
+        <v>0.03771713636273908</v>
       </c>
       <c r="B83">
-        <v>1685516014.369259</v>
+        <v>1685699393.419815</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>0.02849928154393691</v>
+      </c>
+      <c r="B84">
+        <v>1685699393.620445</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>0.02229046508855571</v>
+      </c>
+      <c r="B85">
+        <v>1685699393.825231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>0.01698999901152856</v>
+      </c>
+      <c r="B86">
+        <v>1685699394.027855</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>0.258269950402886</v>
+      </c>
+      <c r="B87">
+        <v>1685699395.659563</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>0.5477384207772099</v>
+      </c>
+      <c r="B88">
+        <v>1685699395.864284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>0.7467642536677621</v>
+      </c>
+      <c r="B89">
+        <v>1685699396.067538</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>0.8816293993828123</v>
+      </c>
+      <c r="B90">
+        <v>1685699396.270768</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>0.7947886572028924</v>
+      </c>
+      <c r="B91">
+        <v>1685699396.472507</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>0.6670801999532717</v>
+      </c>
+      <c r="B92">
+        <v>1685699396.675249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>0.470150436527024</v>
+      </c>
+      <c r="B93">
+        <v>1685699396.877276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>0.3175100942415712</v>
+      </c>
+      <c r="B94">
+        <v>1685699397.079043</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>0.2153707381066016</v>
+      </c>
+      <c r="B95">
+        <v>1685699397.282169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>0.146404598807401</v>
+      </c>
+      <c r="B96">
+        <v>1685699397.497757</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>0.1134093387786873</v>
+      </c>
+      <c r="B97">
+        <v>1685699397.699375</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>0.08808066739118368</v>
+      </c>
+      <c r="B98">
+        <v>1685699397.901221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>0.0606531097992895</v>
+      </c>
+      <c r="B99">
+        <v>1685699398.102164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>0.04234329648566511</v>
+      </c>
+      <c r="B100">
+        <v>1685699398.30232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>0.03098633861125397</v>
+      </c>
+      <c r="B101">
+        <v>1685699398.506244</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>0.02220303261141663</v>
+      </c>
+      <c r="B102">
+        <v>1685699398.707263</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>0.01997896119347957</v>
+      </c>
+      <c r="B103">
+        <v>1685699398.90905</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>0.2290276247467491</v>
+      </c>
+      <c r="B104">
+        <v>1685699400.533249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>0.5313813505534947</v>
+      </c>
+      <c r="B105">
+        <v>1685699400.73518</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>0.7246930971470722</v>
+      </c>
+      <c r="B106">
+        <v>1685699400.943724</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>0.7999013568704432</v>
+      </c>
+      <c r="B107">
+        <v>1685699401.151389</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>0.9269557220263474</v>
+      </c>
+      <c r="B108">
+        <v>1685699401.355098</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>0.6880864383080931</v>
+      </c>
+      <c r="B109">
+        <v>1685699401.558026</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>0.4643477766735153</v>
+      </c>
+      <c r="B110">
+        <v>1685699401.75845</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>0.3139298767889056</v>
+      </c>
+      <c r="B111">
+        <v>1685699401.961316</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>0.2320119373676895</v>
+      </c>
+      <c r="B112">
+        <v>1685699402.163318</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>0.1951609015828803</v>
+      </c>
+      <c r="B113">
+        <v>1685699402.363669</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>0.1329197463941978</v>
+      </c>
+      <c r="B114">
+        <v>1685699402.565068</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>0.09103503715688717</v>
+      </c>
+      <c r="B115">
+        <v>1685699402.769578</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>0.06515057552238873</v>
+      </c>
+      <c r="B116">
+        <v>1685699402.972655</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>0.04341476514054722</v>
+      </c>
+      <c r="B117">
+        <v>1685699403.176934</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>0.03854729637725243</v>
+      </c>
+      <c r="B118">
+        <v>1685699403.388417</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>0.02768685534228644</v>
+      </c>
+      <c r="B119">
+        <v>1685699403.589946</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>0.02027943132625556</v>
+      </c>
+      <c r="B120">
+        <v>1685699403.790518</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>0.08185098514714936</v>
+      </c>
+      <c r="B121">
+        <v>1685699405.441336</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>0.1819427602488769</v>
+      </c>
+      <c r="B122">
+        <v>1685699405.643288</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>0.5058931508625767</v>
+      </c>
+      <c r="B123">
+        <v>1685699405.847156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>0.7353538985375166</v>
+      </c>
+      <c r="B124">
+        <v>1685699406.051386</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>0.8780713799824424</v>
+      </c>
+      <c r="B125">
+        <v>1685699406.253557</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>0.8302838662678449</v>
+      </c>
+      <c r="B126">
+        <v>1685699406.45647</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>0.5852747714894537</v>
+      </c>
+      <c r="B127">
+        <v>1685699406.657426</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>0.4916275769377556</v>
+      </c>
+      <c r="B128">
+        <v>1685699406.862146</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>0.3321657918835584</v>
+      </c>
+      <c r="B129">
+        <v>1685699407.063913</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>0.2349044962973016</v>
+      </c>
+      <c r="B130">
+        <v>1685699407.266913</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>0.1595430333034512</v>
+      </c>
+      <c r="B131">
+        <v>1685699407.470632</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>0.1043899470094869</v>
+      </c>
+      <c r="B132">
+        <v>1685699407.673178</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>0.09199059139546938</v>
+      </c>
+      <c r="B133">
+        <v>1685699407.888688</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>0.06340105596019045</v>
+      </c>
+      <c r="B134">
+        <v>1685699408.093494</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>0.04593905243932737</v>
+      </c>
+      <c r="B135">
+        <v>1685699408.294672</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>0.0323611894920051</v>
+      </c>
+      <c r="B136">
+        <v>1685699408.500365</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>0.02327434658398018</v>
+      </c>
+      <c r="B137">
+        <v>1685699408.701375</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>0.01767855269843166</v>
+      </c>
+      <c r="B138">
+        <v>1685699408.902992</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>0.187986203899218</v>
+      </c>
+      <c r="B139">
+        <v>1685699410.532282</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>0.4486554554846623</v>
+      </c>
+      <c r="B140">
+        <v>1685699410.735934</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>0.6183794304501067</v>
+      </c>
+      <c r="B141">
+        <v>1685699410.938738</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>0.758990299974986</v>
+      </c>
+      <c r="B142">
+        <v>1685699411.140094</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>0.807465417968156</v>
+      </c>
+      <c r="B143">
+        <v>1685699411.343252</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>0.6140490173108634</v>
+      </c>
+      <c r="B144">
+        <v>1685699411.548763</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>0.4144880454019873</v>
+      </c>
+      <c r="B145">
+        <v>1685699411.750479</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>0.2801976214496069</v>
+      </c>
+      <c r="B146">
+        <v>1685699411.956983</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>0.190022838345698</v>
+      </c>
+      <c r="B147">
+        <v>1685699412.160165</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>0.1599721372278236</v>
+      </c>
+      <c r="B148">
+        <v>1685699412.364683</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>0.1091929315369144</v>
+      </c>
+      <c r="B149">
+        <v>1685699412.574496</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>0.07494427251886583</v>
+      </c>
+      <c r="B150">
+        <v>1685699412.776329</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>0.05180361413022026</v>
+      </c>
+      <c r="B151">
+        <v>1685699412.989033</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>0.03766566790889506</v>
+      </c>
+      <c r="B152">
+        <v>1685699413.194194</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>0.02766108148205566</v>
+      </c>
+      <c r="B153">
+        <v>1685699413.39658</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>0.02388140521906026</v>
+      </c>
+      <c r="B154">
+        <v>1685699413.599484</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>0.01744279760195742</v>
+      </c>
+      <c r="B155">
+        <v>1685699413.803974</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <v>0.03181607652205425</v>
+      </c>
+      <c r="B156">
+        <v>1685699415.423003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <v>0.3232294438056504</v>
+      </c>
+      <c r="B157">
+        <v>1685699415.625441</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <v>0.4138628970607439</v>
+      </c>
+      <c r="B158">
+        <v>1685699415.828578</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <v>0.6276386270905816</v>
+      </c>
+      <c r="B159">
+        <v>1685699416.035018</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <v>0.7627701150657706</v>
+      </c>
+      <c r="B160">
+        <v>1685699416.237096</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161">
+        <v>0.7616449594426976</v>
+      </c>
+      <c r="B161">
+        <v>1685699416.438773</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>0.5138002826272032</v>
+      </c>
+      <c r="B162">
+        <v>1685699416.642709</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <v>0.413074722711396</v>
+      </c>
+      <c r="B163">
+        <v>1685699416.856478</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <v>0.3044490762401077</v>
+      </c>
+      <c r="B164">
+        <v>1685699417.058971</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <v>0.1975526173000963</v>
+      </c>
+      <c r="B165">
+        <v>1685699417.259705</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <v>0.1400901138067808</v>
+      </c>
+      <c r="B166">
+        <v>1685699417.474765</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
+        <v>0.09567095081380615</v>
+      </c>
+      <c r="B167">
+        <v>1685699417.67538</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>0.0659139552139761</v>
+      </c>
+      <c r="B168">
+        <v>1685699417.876869</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <v>0.05857109942022531</v>
+      </c>
+      <c r="B169">
+        <v>1685699418.077933</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <v>0.04110441250092765</v>
+      </c>
+      <c r="B170">
+        <v>1685699418.279431</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <v>0.02931350361009855</v>
+      </c>
+      <c r="B171">
+        <v>1685699418.481599</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <v>0.02117078990775443</v>
+      </c>
+      <c r="B172">
+        <v>1685699418.686284</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173">
+        <v>0.1925641458839511</v>
+      </c>
+      <c r="B173">
+        <v>1685699420.532489</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174">
+        <v>0.4788889258176097</v>
+      </c>
+      <c r="B174">
+        <v>1685699420.733032</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175">
+        <v>0.6933828647026669</v>
+      </c>
+      <c r="B175">
+        <v>1685699420.934949</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176">
+        <v>0.8166961410773497</v>
+      </c>
+      <c r="B176">
+        <v>1685699421.137721</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177">
+        <v>0.8719561886834699</v>
+      </c>
+      <c r="B177">
+        <v>1685699421.340436</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178">
+        <v>0.6494109057554002</v>
+      </c>
+      <c r="B178">
+        <v>1685699421.544528</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179">
+        <v>0.4387706499642803</v>
+      </c>
+      <c r="B179">
+        <v>1685699421.747642</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
+        <v>0.2966324328084278</v>
+      </c>
+      <c r="B180">
+        <v>1685699421.951256</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181">
+        <v>0.2096874954465607</v>
+      </c>
+      <c r="B181">
+        <v>1685699422.153485</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182">
+        <v>0.1423051162366252</v>
+      </c>
+      <c r="B182">
+        <v>1685699422.35618</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183">
+        <v>0.1253050897659043</v>
+      </c>
+      <c r="B183">
+        <v>1685699422.559299</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184">
+        <v>0.08251393303455021</v>
+      </c>
+      <c r="B184">
+        <v>1685699422.762339</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185">
+        <v>0.05682810013126109</v>
+      </c>
+      <c r="B185">
+        <v>1685699422.977446</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186">
+        <v>0.04133959316408665</v>
+      </c>
+      <c r="B186">
+        <v>1685699423.18025</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187">
+        <v>0.02945279262743941</v>
+      </c>
+      <c r="B187">
+        <v>1685699423.381933</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188">
+        <v>0.02449494978508669</v>
+      </c>
+      <c r="B188">
+        <v>1685699423.584296</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189">
+        <v>0.01927073556457939</v>
+      </c>
+      <c r="B189">
+        <v>1685699423.786594</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/analysis_31.xlsx
+++ b/experiment/analysis_31.xlsx
@@ -400,18 +400,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.9255213505461769</v>
+        <v>0.9047759433962265</v>
       </c>
       <c r="B2">
-        <v>1685613059.095365</v>
+        <v>1685623408.771924</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.006620324395895399</v>
+        <v>0.00589622641509434</v>
       </c>
       <c r="B3">
-        <v>1685613060.103559</v>
+        <v>1685623409.776232</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -419,7 +419,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>1685613061.113617</v>
+        <v>1685623410.791323</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -427,7 +427,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>1685613062.11815</v>
+        <v>1685623411.795087</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>1685613063.124629</v>
+        <v>1685623412.802137</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -443,15 +443,15 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>1685613064.130596</v>
+        <v>1685623413.807851</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.9804700430321087</v>
+        <v>0.9855542452830188</v>
       </c>
       <c r="B8">
-        <v>1685613065.136958</v>
+        <v>1685623414.815443</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -459,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>1685613066.137494</v>
+        <v>1685623415.823772</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -467,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1685613067.141251</v>
+        <v>1685623416.829868</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>1685613068.145785</v>
+        <v>1685623417.834086</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -483,15 +483,15 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>1685613069.149947</v>
+        <v>1685623418.838315</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.9837802052300564</v>
+        <v>0.9914504716981132</v>
       </c>
       <c r="B13">
-        <v>1685613070.157634</v>
+        <v>1685623419.84051</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>1685613071.159661</v>
+        <v>1685623420.841437</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>1685613072.168591</v>
+        <v>1685623421.846129</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -515,23 +515,23 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>1685613073.177304</v>
+        <v>1685623422.853493</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.3978814961933135</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>1685613074.178235</v>
+        <v>1685623423.857002</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.6858656074147633</v>
+        <v>0.9914504716981132</v>
       </c>
       <c r="B18">
-        <v>1685613075.180999</v>
+        <v>1685623424.860122</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>1685613076.185697</v>
+        <v>1685623425.866841</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>1685613077.193296</v>
+        <v>1685623426.877266</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -555,23 +555,23 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>1685613078.200558</v>
+        <v>1685623427.883496</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.5954981794107912</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>1685613079.207412</v>
+        <v>1685623428.89019</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.1780867262495862</v>
+        <v>0.4436910377358491</v>
       </c>
       <c r="B23">
-        <v>1685613080.211111</v>
+        <v>1685623429.898357</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>1685613081.225981</v>
+        <v>1685623430.907547</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>1685613082.240733</v>
+        <v>1685623431.914615</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -595,23 +595,23 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>1685613083.247193</v>
+        <v>1685623432.922146</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.7861635220125787</v>
+        <v>0.680129716981132</v>
       </c>
       <c r="B27">
-        <v>1685613084.253564</v>
+        <v>1685623433.9296</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.08738828202581927</v>
+        <v>0.1067216981132076</v>
       </c>
       <c r="B28">
-        <v>1685613085.255706</v>
+        <v>1685623434.934046</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>1685613086.259642</v>
+        <v>1685623435.935046</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>1685613087.267441</v>
+        <v>1685623436.941548</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -635,23 +635,23 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>1685613088.271025</v>
+        <v>1685623437.946966</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>0.8639523336643496</v>
+        <v>0.8357900943396226</v>
       </c>
       <c r="B32">
-        <v>1685613089.279618</v>
+        <v>1685623438.953917</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0.04203905991393578</v>
+        <v>0.0834316037735849</v>
       </c>
       <c r="B33">
-        <v>1685613090.284304</v>
+        <v>1685623439.955634</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>1685613091.293627</v>
+        <v>1685623440.961392</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <v>1685613092.300772</v>
+        <v>1685623441.969362</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -675,23 +675,23 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>1685613093.304582</v>
+        <v>1685623442.977031</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>0.9155908639523338</v>
+        <v>0.8558372641509434</v>
       </c>
       <c r="B37">
-        <v>1685613094.310327</v>
+        <v>1685623443.983788</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>0.03872889771598809</v>
+        <v>0.05188679245283019</v>
       </c>
       <c r="B38">
-        <v>1685613095.326353</v>
+        <v>1685623444.986964</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <v>1685613096.333715</v>
+        <v>1685623445.987972</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <v>1685613097.343356</v>
+        <v>1685623446.990444</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -715,23 +715,23 @@
         <v>0</v>
       </c>
       <c r="B41">
-        <v>1685613098.354654</v>
+        <v>1685623447.99147</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>0.9318106587222774</v>
+        <v>0.8788325471698113</v>
       </c>
       <c r="B42">
-        <v>1685613099.361206</v>
+        <v>1685623448.99949</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>0.02581926514399206</v>
+        <v>0.0433372641509434</v>
       </c>
       <c r="B43">
-        <v>1685613100.364231</v>
+        <v>1685623450.004013</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>1685613101.368996</v>
+        <v>1685623451.008079</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>1685613102.377042</v>
+        <v>1685623452.013498</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -755,23 +755,23 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>1685613103.378177</v>
+        <v>1685623453.018147</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>0.9351208209202251</v>
+        <v>0.9106721698113208</v>
       </c>
       <c r="B47">
-        <v>1685613104.384887</v>
+        <v>1685623454.021461</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>0.02250910294604436</v>
+        <v>0.03183962264150943</v>
       </c>
       <c r="B48">
-        <v>1685613105.389002</v>
+        <v>1685623455.036788</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="B49">
-        <v>1685613106.394259</v>
+        <v>1685623456.039951</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>1685613107.395642</v>
+        <v>1685623457.046774</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -795,23 +795,23 @@
         <v>0</v>
       </c>
       <c r="B51">
-        <v>1685613108.398235</v>
+        <v>1685623458.05128</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>0.9384309831181727</v>
+        <v>0.9395636792452829</v>
       </c>
       <c r="B52">
-        <v>1685613109.403816</v>
+        <v>1685623459.054755</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>0.01621979476994373</v>
+        <v>0.02299528301886792</v>
       </c>
       <c r="B53">
-        <v>1685613110.417581</v>
+        <v>1685623460.060387</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="B54">
-        <v>1685613111.423888</v>
+        <v>1685623461.068414</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="B55">
-        <v>1685613112.431649</v>
+        <v>1685623462.072003</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -835,23 +835,23 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>1685613113.435671</v>
+        <v>1685623463.075608</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>0.9513406156901688</v>
+        <v>0.9451650943396226</v>
       </c>
       <c r="B57">
-        <v>1685613114.444269</v>
+        <v>1685623464.080199</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>0.01290963257199603</v>
+        <v>0.0173938679245283</v>
       </c>
       <c r="B58">
-        <v>1685613115.449906</v>
+        <v>1685623465.083143</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>1685613116.450998</v>
+        <v>1685623466.088216</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>1685613117.451643</v>
+        <v>1685623467.093893</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -875,39 +875,39 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>1685613118.454959</v>
+        <v>1685623468.097108</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>0.9609400860642172</v>
+        <v>0.9422169811320754</v>
       </c>
       <c r="B62">
-        <v>1685613119.456368</v>
+        <v>1685623469.099483</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>0.9966898378020523</v>
+        <v>1</v>
       </c>
       <c r="B63">
-        <v>1685613120.471049</v>
+        <v>1685623470.103446</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>0.9966898378020523</v>
+        <v>1</v>
       </c>
       <c r="B64">
-        <v>1685613121.474754</v>
+        <v>1685623471.117985</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>0.9867593512082092</v>
+        <v>0.9941037735849056</v>
       </c>
       <c r="B65">
-        <v>1685613122.482967</v>
+        <v>1685623472.125938</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -915,31 +915,31 @@
         <v>1</v>
       </c>
       <c r="B66">
-        <v>1685613123.491504</v>
+        <v>1685623473.126963</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>0.9966898378020523</v>
+        <v>1</v>
       </c>
       <c r="B67">
-        <v>1685613124.500623</v>
+        <v>1685623474.130644</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>0.9966898378020523</v>
+        <v>0.9970518867924528</v>
       </c>
       <c r="B68">
-        <v>1685613125.506711</v>
+        <v>1685623475.135536</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>0.9966898378020523</v>
+        <v>0.988502358490566</v>
       </c>
       <c r="B69">
-        <v>1685613126.521278</v>
+        <v>1685623476.140497</v>
       </c>
     </row>
   </sheetData>
@@ -949,7 +949,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -965,282 +965,330 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
+        <v>0.9417007494823236</v>
       </c>
       <c r="B2">
-        <v>1685613065.147663</v>
+        <v>1685623414.834406</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.2576240895316762</v>
+        <v>0.235091027528515</v>
       </c>
       <c r="B3">
-        <v>1685613066.168225</v>
+        <v>1685623415.843756</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.9990026438706784</v>
+        <v>0.07829386776133226</v>
       </c>
       <c r="B4">
-        <v>1685613070.226218</v>
+        <v>1685623416.853505</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.2366326840975001</v>
+        <v>0.9584498654005329</v>
       </c>
       <c r="B5">
-        <v>1685613071.236143</v>
+        <v>1685623419.883801</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.9685660658364204</v>
+        <v>0.2271841256408894</v>
       </c>
       <c r="B6">
-        <v>1685613075.286364</v>
+        <v>1685623420.893886</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.2282862857085139</v>
+        <v>0.08975789442879692</v>
       </c>
       <c r="B7">
-        <v>1685613076.295844</v>
+        <v>1685623421.913832</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.2215038182014743</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>1685613078.340245</v>
+        <v>1685623424.944024</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.2099154640889067</v>
+        <v>0.2179423529977272</v>
       </c>
       <c r="B9">
-        <v>1685613079.350001</v>
+        <v>1685623425.953533</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.8449838342062587</v>
+        <v>0.09127416558884889</v>
       </c>
       <c r="B10">
-        <v>1685613080.360299</v>
+        <v>1685623426.963357</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.2281233416472198</v>
+        <v>0.9545501542596003</v>
       </c>
       <c r="B11">
-        <v>1685613081.360224</v>
+        <v>1685623430.00345</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.3218212871724346</v>
+        <v>0.1985829229291004</v>
       </c>
       <c r="B12">
-        <v>1685613084.40032</v>
+        <v>1685623431.014019</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.7789696718830714</v>
+        <v>0.08396344399613855</v>
       </c>
       <c r="B13">
-        <v>1685613085.410274</v>
+        <v>1685623432.023771</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.2180567303606938</v>
+        <v>0.09384098719080722</v>
       </c>
       <c r="B14">
-        <v>1685613086.420332</v>
+        <v>1685623434.04355</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.4153476349830282</v>
+        <v>0.8492869663790248</v>
       </c>
       <c r="B15">
-        <v>1685613089.45035</v>
+        <v>1685623435.05382</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.7162498568579189</v>
+        <v>0.1710120031199568</v>
       </c>
       <c r="B16">
-        <v>1685613090.46981</v>
+        <v>1685623436.074096</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.2130035600387493</v>
+        <v>0.233085559562567</v>
       </c>
       <c r="B17">
-        <v>1685613091.480011</v>
+        <v>1685623439.103975</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.480450475922496</v>
+        <v>0.7745786148445555</v>
       </c>
       <c r="B18">
-        <v>1685613094.510285</v>
+        <v>1685623440.113882</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.661700684247443</v>
+        <v>0.1538628727032046</v>
       </c>
       <c r="B19">
-        <v>1685613095.519966</v>
+        <v>1685623441.12383</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.2122461348749667</v>
+        <v>0.305753506487411</v>
       </c>
       <c r="B20">
-        <v>1685613096.530032</v>
+        <v>1685623444.163882</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.5741955863475671</v>
+        <v>0.7002097408651604</v>
       </c>
       <c r="B21">
-        <v>1685613099.569975</v>
+        <v>1685623445.173304</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.6053373621984545</v>
+        <v>0.1576697565395109</v>
       </c>
       <c r="B22">
-        <v>1685613100.580904</v>
+        <v>1685623446.183832</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.198198589246505</v>
+        <v>0.07990668287504957</v>
       </c>
       <c r="B23">
-        <v>1685613101.590235</v>
+        <v>1685623447.193748</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.6310611874371139</v>
+        <v>0.4034352985378662</v>
       </c>
       <c r="B24">
-        <v>1685613104.620124</v>
+        <v>1685623449.213068</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.5631138768644532</v>
+        <v>0.637480531479263</v>
       </c>
       <c r="B25">
-        <v>1685613105.640294</v>
+        <v>1685623450.223863</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.1932092874543898</v>
+        <v>0.1557764424277704</v>
       </c>
       <c r="B26">
-        <v>1685613106.650166</v>
+        <v>1685623451.243704</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.7073607163076321</v>
+        <v>0.08347018891602777</v>
       </c>
       <c r="B27">
-        <v>1685613109.679727</v>
+        <v>1685623452.253665</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.5212184377595389</v>
+        <v>0.4826309661049782</v>
       </c>
       <c r="B28">
-        <v>1685613110.689708</v>
+        <v>1685623454.273916</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>0.1858963806701341</v>
+        <v>0.5718225916375675</v>
       </c>
       <c r="B29">
-        <v>1685613111.700327</v>
+        <v>1685623455.283168</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>0.7641226159436726</v>
+        <v>0.138049879121314</v>
       </c>
       <c r="B30">
-        <v>1685613114.760316</v>
+        <v>1685623456.293574</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>0.4992895078097414</v>
+        <v>0.5506775717006021</v>
       </c>
       <c r="B31">
-        <v>1685613115.770596</v>
+        <v>1685623459.33377</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>0.1876875999807831</v>
+        <v>0.5177137622298323</v>
       </c>
       <c r="B32">
-        <v>1685613116.780206</v>
+        <v>1685623460.343891</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0.2272963635397318</v>
+        <v>0.117700732486322</v>
       </c>
       <c r="B33">
-        <v>1685613117.790304</v>
+        <v>1685623461.353936</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0.8028524501304349</v>
+        <v>0.6207021284124847</v>
       </c>
       <c r="B34">
-        <v>1685613119.810278</v>
+        <v>1685623464.383914</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>0.4238941070398836</v>
+        <v>0.4590986419320759</v>
       </c>
       <c r="B35">
-        <v>1685613120.820335</v>
+        <v>1685623465.403867</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>0.1792086538909354</v>
+        <v>0.286131263523025</v>
       </c>
       <c r="B36">
-        <v>1685613121.839892</v>
+        <v>1685623466.413811</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>0.1027109820655689</v>
+      </c>
+      <c r="B37">
+        <v>1685623467.423034</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>0.6826624474671684</v>
+      </c>
+      <c r="B38">
+        <v>1685623469.443327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>0.4311752444150959</v>
+      </c>
+      <c r="B39">
+        <v>1685623470.453785</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>0.1239710112634145</v>
+      </c>
+      <c r="B40">
+        <v>1685623471.463868</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>0.08015343504791642</v>
+      </c>
+      <c r="B41">
+        <v>1685623472.483834</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>0.08683768276127683</v>
+      </c>
+      <c r="B42">
+        <v>1685623477.533869</v>
       </c>
     </row>
   </sheetData>
